--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV120-001 - Jenis Porto - Reksadana Hapus Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV120-001 - Jenis Porto - Reksadana Hapus Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F077EC-1D0E-4747-874A-9B906F7623AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A186FC9-AB36-49FC-92D8-A29C136E71A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 Kode Jenis Porto : R07</t>
   </si>
   <si>
-    <t>R07</t>
+    <t>R91</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
